--- a/A4 Earth Field NMR/活頁簿1.xlsx
+++ b/A4 Earth Field NMR/活頁簿1.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anlei/Desktop/112-2_Modern_Physics_Experiments/A4 Earth Field NMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{282CE9AF-974D-0C4C-8DCC-13D2B22EAD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9684160-AA5B-CF43-8816-DBB509E465CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{5B336E25-BCD1-0A4A-9F77-129954E49353}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5B336E25-BCD1-0A4A-9F77-129954E49353}"/>
   </bookViews>
   <sheets>
     <sheet name="nmr" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId2"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId3"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="beta">nmr!$E$2</definedName>
     <definedName name="gamma">nmr!$F$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -564,379 +564,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-TW"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>工作表3!$A$1:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.79031521981532404</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.28396964380708</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66646015762071997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0780005455396</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2216100643379699</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.39257125599734</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5833130769303501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>工作表3!$B$1:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.3290035452000399</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.81153446303949495</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4546852987457899</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.96458261175388604</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.82907284631651701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.62560344605148299</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.58246577163526103</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-830D-CD48-B6BE-39D72DBBFBD9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1568219312"/>
-        <c:axId val="1554279136"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1568219312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1554279136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1554279136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1568219312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>工作表2!$A$2:$A$10</c:f>
@@ -1185,7 +812,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1453,6 +1080,379 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="591043136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$1:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.78823353920516903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.27896385704801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66646005924126706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.06525293323228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2190290198725999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3888992217726801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.51273989172657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$B$1:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.44130337391115099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25769189429314898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52452246746921005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31222042035152597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27322739738815</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20753575754616699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19062399221784099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2680-CA46-ADF4-4480163C436E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="591198527"/>
+        <c:axId val="1054833295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="591198527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1054833295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1054833295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591198527"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3777,57 +3777,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>148772</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>486229</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>61686</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167D6177-33D2-32A8-0A1A-8FFD5ADF9251}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>751417</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3883,6 +3842,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>264762</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711056</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>141063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1407B546-8AA2-69FF-4C10-910162340E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4188,19 +4188,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B662C66-ACA1-AB4C-96CB-D55EB8D56535}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="391" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="E1" t="s">
         <v>6</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4220,8 +4221,12 @@
         <f>267500000</f>
         <v>267500000</v>
       </c>
+      <c r="H2">
+        <f>2.4/gamma/0.0254</f>
+        <v>3.5322687467804838E-7</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4238,7 +4243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4264,7 +4269,7 @@
         <v>7.6896513750445317E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4282,7 +4287,7 @@
         <v>-11.44</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4300,7 +4305,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4318,7 +4323,7 @@
         <v>-6.0389999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4343,7 +4348,7 @@
         <v>5.0020469082705889E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4359,8 +4364,12 @@
       <c r="E9">
         <v>8.2789999999999999</v>
       </c>
+      <c r="F9">
+        <f>SLOPE(E8:E10,A8:A10)</f>
+        <v>3.0005000000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4377,7 +4386,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>4</v>
       </c>
@@ -4461,21 +4470,286 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33432E1-0B66-5D48-8D1A-2402FD441241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607F86FF-A88E-9446-85F1-48F3A1852AC8}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2014</v>
+      </c>
+      <c r="C2">
+        <v>2027</v>
+      </c>
+      <c r="D2">
+        <v>12.28</v>
+      </c>
+      <c r="E2">
+        <f>-D2</f>
+        <v>-12.28</v>
+      </c>
+      <c r="F2">
+        <f>(B2+C2)/2</f>
+        <v>2020.5</v>
+      </c>
+      <c r="H2">
+        <f>SLOPE(E2:E7,A2:A7)*2*PI()/gamma/beta</f>
+        <v>5.2007685889537712E-2</v>
+      </c>
+      <c r="I2">
+        <f>(H2-0.05412)/0.05412</f>
+        <v>-3.9030194206620274E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2016</v>
+      </c>
+      <c r="C3">
+        <v>2025</v>
+      </c>
+      <c r="D3">
+        <v>9.44</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">-D3</f>
+        <v>-9.44</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="1">(B3+C3)/2</f>
+        <v>2020.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2016</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>7.16</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-7.16</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2019.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2017</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>4.8390000000000004</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-4.8390000000000004</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2019.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2015</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>7.9589999999999996</v>
+      </c>
+      <c r="E6">
+        <f>D6</f>
+        <v>7.9589999999999996</v>
+      </c>
+      <c r="F6">
+        <f>(B6+C6)/2</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2014</v>
+      </c>
+      <c r="C7">
+        <v>2024</v>
+      </c>
+      <c r="D7">
+        <v>10.36</v>
+      </c>
+      <c r="E7">
+        <f>D7</f>
+        <v>10.36</v>
+      </c>
+      <c r="F7">
+        <f>(B7+C7)/2</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2018</v>
+      </c>
+      <c r="C29">
+        <v>2019</v>
+      </c>
+      <c r="D29">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f>(B29+C29)/2</f>
+        <v>2018.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>2019</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <f>(B30+C30)/2</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2019</v>
+      </c>
+      <c r="C31">
+        <v>2019</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <f>(B31+C31)/2</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <f>(B32+C32)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <f>(B33+C33)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0B0FC3-6A32-DC45-8928-9AA1D24F5D88}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="B13" sqref="B1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>0.79031521981532404</v>
+        <v>0.78823353920516903</v>
       </c>
       <c r="B1" s="1">
-        <v>1.3290035452000399</v>
+        <v>0.44130337391115099</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4484,10 +4758,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>1.28396964380708</v>
+        <v>1.27896385704801</v>
       </c>
       <c r="B3" s="1">
-        <v>0.81153446303949495</v>
+        <v>0.25769189429314898</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4496,10 +4770,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>0.66646015762071997</v>
+        <v>0.66646005924126706</v>
       </c>
       <c r="B5" s="1">
-        <v>1.4546852987457899</v>
+        <v>0.52452246746921005</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4508,10 +4782,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>1.0780005455396</v>
+        <v>1.06525293323228</v>
       </c>
       <c r="B7" s="1">
-        <v>0.96458261175388604</v>
+        <v>0.31222042035152597</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4520,10 +4794,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>1.2216100643379699</v>
+        <v>1.2190290198725999</v>
       </c>
       <c r="B9" s="1">
-        <v>0.82907284631651701</v>
+        <v>0.27322739738815</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4532,10 +4806,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>1.39257125599734</v>
+        <v>1.3888992217726801</v>
       </c>
       <c r="B11" s="1">
-        <v>0.62560344605148299</v>
+        <v>0.20753575754616699</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4544,10 +4818,10 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>1.5833130769303501</v>
+        <v>1.51273989172657</v>
       </c>
       <c r="B13" s="1">
-        <v>0.58246577163526103</v>
+        <v>0.19062399221784099</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4576,268 +4850,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607F86FF-A88E-9446-85F1-48F3A1852AC8}">
-  <dimension ref="A1:I33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2014</v>
-      </c>
-      <c r="C2">
-        <v>2027</v>
-      </c>
-      <c r="D2">
-        <v>12.28</v>
-      </c>
-      <c r="E2">
-        <f>-D2</f>
-        <v>-12.28</v>
-      </c>
-      <c r="F2">
-        <f>(B2+C2)/2</f>
-        <v>2020.5</v>
-      </c>
-      <c r="H2">
-        <f>SLOPE(E2:E7,A2:A7)*2*PI()/gamma/beta</f>
-        <v>5.2007685889537712E-2</v>
-      </c>
-      <c r="I2">
-        <f>(H2-0.05412)/0.05412</f>
-        <v>-3.9030194206620274E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2016</v>
-      </c>
-      <c r="C3">
-        <v>2025</v>
-      </c>
-      <c r="D3">
-        <v>9.44</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">-D3</f>
-        <v>-9.44</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F12" si="1">(B3+C3)/2</f>
-        <v>2020.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2016</v>
-      </c>
-      <c r="C4">
-        <v>2023</v>
-      </c>
-      <c r="D4">
-        <v>7.16</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>-7.16</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>2019.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2017</v>
-      </c>
-      <c r="C5">
-        <v>2022</v>
-      </c>
-      <c r="D5">
-        <v>4.8390000000000004</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>-4.8390000000000004</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>2019.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>2015</v>
-      </c>
-      <c r="C6">
-        <v>2023</v>
-      </c>
-      <c r="D6">
-        <v>7.9589999999999996</v>
-      </c>
-      <c r="E6">
-        <f>D6</f>
-        <v>7.9589999999999996</v>
-      </c>
-      <c r="F6">
-        <f>(B6+C6)/2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2014</v>
-      </c>
-      <c r="C7">
-        <v>2024</v>
-      </c>
-      <c r="D7">
-        <v>10.36</v>
-      </c>
-      <c r="E7">
-        <f>D7</f>
-        <v>10.36</v>
-      </c>
-      <c r="F7">
-        <f>(B7+C7)/2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>2018</v>
-      </c>
-      <c r="C29">
-        <v>2019</v>
-      </c>
-      <c r="D29">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <f>(B29+C29)/2</f>
-        <v>2018.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>2019</v>
-      </c>
-      <c r="C30">
-        <v>2019</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30">
-        <f>(B30+C30)/2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>2019</v>
-      </c>
-      <c r="C31">
-        <v>2019</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <f>(B31+C31)/2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <f>(B32+C32)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33">
-        <f>(B33+C33)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>